--- a/PC-List.xlsx
+++ b/PC-List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\276987\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A948BD-2417-4511-A180-80AC109D9F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FE0755-1E68-40CE-B8C0-86D65C9CDE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0A7158CF-7F9C-4846-8A69-CAF09C417CCB}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>PC</t>
   </si>
   <si>
     <t>Script</t>
+  </si>
+  <si>
+    <t>6001-1122-STAFF-MJ0AJPEB</t>
   </si>
 </sst>
 </file>
@@ -393,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02ACE09-48D8-485C-A864-63E930C5F2F3}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
     <col min="2" max="2" width="171.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -413,6 +416,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
